--- a/data/trans_camb/P12A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12A-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-8,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>-14,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 16,56</t>
+          <t>-14,51; 25,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 19,48</t>
+          <t>-12,32; 28,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 23,19</t>
+          <t>-17,95; 19,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 2,18</t>
+          <t>-22,94; 5,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 16,26</t>
+          <t>-29,45; -2,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 6,11</t>
+          <t>-17,94; 14,04</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-13,2; 11,16</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-16,22; 8,24</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-14,44; 12,11</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>49,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,64%</t>
+          <t>-39,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>-70,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,28%</t>
+          <t>-5,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-6,45%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-19,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-3,41%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 162,16</t>
+          <t>-52,24; 331,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 169,81</t>
+          <t>-47,33; 342,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,89; 138,19</t>
+          <t>-71,46; 202,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,04; 10,06</t>
+          <t>-81,47; 74,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 105,91</t>
+          <t>-94,12; 6,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 36,82</t>
+          <t>-64,75; 128,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-54,44; 94,87</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-64,0; 67,99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-55,14; 99,61</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>1,91</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,24</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 9,96</t>
+          <t>-2,02; 20,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 11,76</t>
+          <t>-5,06; 17,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 5,82</t>
+          <t>-1,28; 25,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 7,98</t>
+          <t>-8,67; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 6,04</t>
+          <t>-6,65; 7,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 8,14</t>
+          <t>-2,0; 13,35</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 9,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 9,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 15,61</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>69,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>-13,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>40,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15,39%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>55,14%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,29; 79,12</t>
+          <t>-15,07; 208,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 92,45</t>
+          <t>-33,98; 189,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 56,65</t>
+          <t>-11,17; 232,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 81,27</t>
+          <t>-51,26; 49,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 49,26</t>
+          <t>-38,29; 80,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 68,31</t>
+          <t>-14,79; 135,62</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-23,13; 79,51</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-25,56; 82,23</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 133,89</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 7,35</t>
+          <t>-6,24; 10,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 4,1</t>
+          <t>-8,81; 8,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 3,11</t>
+          <t>-7,05; 11,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 4,89</t>
+          <t>-8,39; 4,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,52</t>
+          <t>-7,2; 5,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,9</t>
+          <t>-7,51; 5,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 5,21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 4,4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 5,97</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,23%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,71%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,19%</t>
+          <t>-18,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>-8,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,83%</t>
+          <t>-5,37%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-5,48%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 105,45</t>
+          <t>-36,59; 105,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,59; 62,8</t>
+          <t>-51,09; 90,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 42,91</t>
+          <t>-37,95; 104,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 65,9</t>
+          <t>-59,89; 64,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 44,54</t>
+          <t>-52,56; 82,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 36,66</t>
+          <t>-53,49; 79,26</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-36,72; 58,05</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-40,72; 48,59</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-30,98; 64,47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 7,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 5,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 59,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 64,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 50,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 30,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 33,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 32,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,25</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 11,77</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; 10,48</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 13,79</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-7,52; 1,5</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 2,27</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 7,93</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 5,21</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 4,93</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 9,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>32,53%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>37,86%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-20,66%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-15,73%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,55; 103,8</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-24,54; 89,32</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 121,92</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-47,38; 13,61</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-43,0; 22,59</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-16,21; 73,23</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,79; 43,02</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 42,94</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 72,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
